--- a/Class 4.xlsx
+++ b/Class 4.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GFG19189.GFG\Desktop\Data Science Offline batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="622" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup functions" sheetId="18" r:id="rId1"/>
@@ -17,14 +17,19 @@
     <sheet name="Data" sheetId="21" r:id="rId3"/>
     <sheet name="Pivot table" sheetId="35" r:id="rId4"/>
     <sheet name="Pivot Chart" sheetId="39" r:id="rId5"/>
-    <sheet name="Slicers" sheetId="37" r:id="rId6"/>
-    <sheet name="Timeline" sheetId="38" r:id="rId7"/>
-    <sheet name="Marketing" sheetId="31" r:id="rId8"/>
-    <sheet name="Sales" sheetId="32" r:id="rId9"/>
-    <sheet name="Operations" sheetId="33" r:id="rId10"/>
-    <sheet name="Consolidate" sheetId="34" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Data!$I$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Data!$I$2:$I$12</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Data!$H$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Data!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Data!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Pivot Chart'!$N$34:$N$48</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="89">
   <si>
     <t>Sales</t>
   </si>
@@ -480,47 +485,6 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
       </rPr>
-      <t>VLOOKUP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>MATCH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> together to find the stock of the product priced at 4500.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
       <t>HLOOKUP</t>
     </r>
     <r>
@@ -635,22 +599,25 @@
     </r>
   </si>
   <si>
-    <t>Advertising</t>
+    <t>row</t>
   </si>
   <si>
-    <t>Travel</t>
+    <t>column</t>
   </si>
   <si>
-    <t>Supplies</t>
+    <t xml:space="preserve"> find the stock of the product priced at 4500.</t>
   </si>
   <si>
-    <t>January</t>
+    <t>Sum of Total Sales</t>
   </si>
   <si>
-    <t>February</t>
+    <t>Row Labels</t>
   </si>
   <si>
-    <t>March</t>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Units Sold</t>
   </si>
 </sst>
 </file>
@@ -687,7 +654,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -806,11 +773,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -870,6 +959,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1021,6 +1126,7427 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unit Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2E3-40DD-B274-6A9B264B7D49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="594701375"/>
+        <c:axId val="594703039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="594701375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Unit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> sold</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594703039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="594703039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Unit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Price</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594701375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Class 4.xlsx]Pivot Chart!PivotTable4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total sales of different categories</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot Chart'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Chart'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Appliances</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Furniture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Chart'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4664-41B0-869F-FA06569E29AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="589798655"/>
+        <c:axId val="589801567"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="589798655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Categories</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589801567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="589801567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Sales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589798655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Class 4.xlsx]Pivot Chart!PivotTable5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot Chart'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F2D2-48CD-BBE7-1C623B48A41A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F2D2-48CD-BBE7-1C623B48A41A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F2D2-48CD-BBE7-1C623B48A41A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F2D2-48CD-BBE7-1C623B48A41A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Chart'!$L$3:$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Chart'!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75D1-458F-BCFA-DC8492FF3A64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Class 4.xlsx]Pivot Chart!PivotTable6</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot Chart'!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Chart'!$X$3:$X$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>05-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>06-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>07-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>08-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>09-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14-01-2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Chart'!$Y$3:$Y$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EDB-46F7-A927-D687692ADE58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="594695967"/>
+        <c:axId val="594691807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="594695967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594691807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="594691807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594695967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{AE5EA3DA-DA99-4AAA-8428-71762A2B61A4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Unit Price</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="5"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6F3388A8-A27F-4066-8B21-2BCDE84EB488}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{B98353EA-2D4E-47EA-8752-5831706D9D85}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Total Sales</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{E309E146-70F5-4A33-96E3-654C1A5A35D1}">
+          <cx:dataLabels/>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="5"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464587</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138016</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156677</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>318797</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>604547</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>59484</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Chart 5"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>250761</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>115467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>536511</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1167</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Chart 6"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>542341</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>105747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>215770</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137238</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Chart 7"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Chart 6"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sakshi Singhal" refreshedDate="45652.752808333331" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J11" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Order ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1001" maxValue="1010"/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-05T00:00:00" maxDate="2024-01-15T00:00:00" count="10">
+        <d v="2024-01-05T00:00:00"/>
+        <d v="2024-01-06T00:00:00"/>
+        <d v="2024-01-07T00:00:00"/>
+        <d v="2024-01-08T00:00:00"/>
+        <d v="2024-01-09T00:00:00"/>
+        <d v="2024-01-10T00:00:00"/>
+        <d v="2024-01-11T00:00:00"/>
+        <d v="2024-01-12T00:00:00"/>
+        <d v="2024-01-13T00:00:00"/>
+        <d v="2024-01-14T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Laptop"/>
+        <s v="Smartphone"/>
+        <s v="Desk Chair"/>
+        <s v="Bookshelf"/>
+        <s v="Air Conditioner"/>
+        <s v="Microwave Oven"/>
+        <s v="Desk Lamp"/>
+        <s v="Tablet"/>
+        <s v="Refrigerator"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Electronics"/>
+        <s v="Furniture"/>
+        <s v="Appliances"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="4">
+        <s v="North"/>
+        <s v="South"/>
+        <s v="West"/>
+        <s v="East"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Salesperson" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Alice"/>
+        <s v="Bob"/>
+        <s v="Charlie"/>
+        <s v="Diana"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Units Sold" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="30" count="10">
+        <n v="15"/>
+        <n v="25"/>
+        <n v="10"/>
+        <n v="5"/>
+        <n v="8"/>
+        <n v="12"/>
+        <n v="20"/>
+        <n v="30"/>
+        <n v="3"/>
+        <n v="18"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Unit Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="1200" count="9">
+        <n v="800"/>
+        <n v="500"/>
+        <n v="120"/>
+        <n v="150"/>
+        <n v="600"/>
+        <n v="200"/>
+        <n v="50"/>
+        <n v="300"/>
+        <n v="1200"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Total Sales" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="750" maxValue="12500" count="9">
+        <n v="12000"/>
+        <n v="12500"/>
+        <n v="1200"/>
+        <n v="750"/>
+        <n v="4800"/>
+        <n v="2400"/>
+        <n v="1000"/>
+        <n v="9000"/>
+        <n v="3600"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Profit (%)" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="0.3"/>
+    </cacheField>
+    <cacheField name="Field1" numFmtId="0" formula=" 0" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+  <r>
+    <n v="1001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.18"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.15"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.12"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="0.22"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="0.1"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="0.18"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="0.3"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="0.18"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M8:O25" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G1:H6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Units Sold" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="C1:D5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Sales" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:A2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Sales" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A1:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Units Sold" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="X2:Y13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Sales" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="L2:M7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Sales" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="C4:F9" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="C4:F9"/>
@@ -1302,8 +8828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:O69"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1328,6 +8854,13 @@
       <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <f>VLOOKUP(I4,Table4[#All],3,FALSE)</f>
+        <v>70000</v>
+      </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" s="13" t="s">
@@ -1342,6 +8875,13 @@
       <c r="F5" s="14">
         <v>44742</v>
       </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <f>VLOOKUP(I5,Table4[[#All],[Department]:[Joining Date]],2,FALSE)</f>
+        <v>45000</v>
+      </c>
     </row>
     <row r="6" spans="3:14">
       <c r="C6" s="13" t="s">
@@ -1356,6 +8896,13 @@
       <c r="F6" s="14">
         <v>43840</v>
       </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <f>VLOOKUP(I6,Table4[[#All],[Department]:[Joining Date]],2,FALSE)</f>
+        <v>60000</v>
+      </c>
     </row>
     <row r="7" spans="3:14">
       <c r="C7" s="13" t="s">
@@ -1414,11 +8961,25 @@
         <f>VLOOKUP(G11,C4:F9,3,FALSE)</f>
         <v>65000</v>
       </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <f>LOOKUP(K11,Table4[[#All],[Employee Name]],Table4[[#All],[Salary]])</f>
+        <v>55000</v>
+      </c>
     </row>
     <row r="12" spans="3:14">
       <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="K12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="e">
+        <f>LOOKUP(K12,Table4[[#All],[Employee Name]],Table4[[#All],[Salary]])</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="18" spans="3:14">
       <c r="D18" t="s">
@@ -1548,6 +9109,12 @@
       <c r="L29">
         <f>VLOOKUP(C25,C23:I26,4,FALSE)</f>
         <v>2300</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="F31">
+        <f>HLOOKUP(E29,C23:I26,2,FALSE)</f>
+        <v>5500</v>
       </c>
     </row>
     <row r="35" spans="3:15">
@@ -1695,38 +9262,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1735,7 +9276,7 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="21" t="s">
         <v>61</v>
       </c>
@@ -1755,7 +9296,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" s="22">
         <v>101</v>
       </c>
@@ -1775,7 +9316,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="22">
         <v>102</v>
       </c>
@@ -1792,7 +9333,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4" s="22">
         <v>103</v>
       </c>
@@ -1809,7 +9350,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:12">
       <c r="A5" s="22">
         <v>104</v>
       </c>
@@ -1826,7 +9367,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6" s="22">
         <v>105</v>
       </c>
@@ -1843,44 +9384,237 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="7" spans="1:12">
+      <c r="L7">
+        <f>INDEX(A1:E6,MATCH("Mouse",B1:B6,0),MATCH("Price",A1:E1,0))</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8">
+        <v>103</v>
+      </c>
+      <c r="I8">
+        <f>VLOOKUP(H8,A1:E6,3,FALSE)</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <f>MATCH(D11,B1:B6,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <f>MATCH(D13,A1:E1,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="J14">
+        <f>MATCH(103,A1:A6,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="E16">
+        <f>INDEX(A1:E6,MATCH(103,A1:A6,0),MATCH("Price",A1:E1,0))</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f>MAX(C23:C27)</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="22">
+        <v>101</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="22">
+        <v>1500</v>
+      </c>
+      <c r="D23" s="22">
+        <v>50</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="22">
+        <v>102</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="22">
+        <v>700</v>
+      </c>
+      <c r="D24" s="22">
+        <v>120</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="22">
+        <v>103</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="22">
+        <v>8500</v>
+      </c>
+      <c r="D25" s="22">
+        <v>30</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25">
+        <f>MAX(C23:C27)</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="22">
+        <v>104</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="22">
+        <v>4500</v>
+      </c>
+      <c r="D26" s="22">
+        <v>15</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="22">
+        <v>105</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="22">
+        <v>6000</v>
+      </c>
+      <c r="D27" s="22">
+        <v>20</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="J28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28">
+        <f>MATCH(K25,C22:C27,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="J29" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29">
+        <f>MATCH(E22,A22:E22,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="M30" t="str">
+        <f>INDEX(A22:E27,K28,K29)</f>
+        <v>Display</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34">
+        <f>INDEX(A22:E27,MATCH(4500,C22:C27,0),MATCH("Stock",A22:E22,0))</f>
+        <v>15</v>
+      </c>
+      <c r="K34">
+        <f>VLOOKUP(4500,C22:E27,MATCH("Stock",C22:E22,0))</f>
+        <v>15</v>
+      </c>
+      <c r="N34">
+        <f>INDEX(A22:E27,MATCH(4500,C22:C27,0),MATCH("Stock",A22:E22,0))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>82</v>
+      <c r="I37" t="str">
+        <f>INDEX(A22:E27,MATCH(MAX(C23:C27),C22:C27,0),MATCH("Category",A22:E22,0))</f>
+        <v>Display</v>
       </c>
     </row>
   </sheetData>
@@ -1891,10 +9625,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1903,7 +9637,7 @@
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:15" ht="30">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -1935,7 +9669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:15">
       <c r="A2" s="4">
         <v>1001</v>
       </c>
@@ -1967,7 +9701,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30">
+    <row r="3" spans="1:15" ht="30">
       <c r="A3" s="4">
         <v>1002</v>
       </c>
@@ -1999,7 +9733,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30">
+    <row r="4" spans="1:15" ht="30">
       <c r="A4" s="4">
         <v>1003</v>
       </c>
@@ -2031,7 +9765,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30">
+    <row r="5" spans="1:15" ht="30">
       <c r="A5" s="4">
         <v>1004</v>
       </c>
@@ -2063,7 +9797,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45">
+    <row r="6" spans="1:15" ht="45">
       <c r="A6" s="4">
         <v>1005</v>
       </c>
@@ -2095,7 +9829,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
+    <row r="7" spans="1:15" ht="30">
       <c r="A7" s="4">
         <v>1006</v>
       </c>
@@ -2127,7 +9861,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30">
+    <row r="8" spans="1:15" ht="30">
       <c r="A8" s="4">
         <v>1007</v>
       </c>
@@ -2158,8 +9892,11 @@
       <c r="J8" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>1008</v>
       </c>
@@ -2190,8 +9927,11 @@
       <c r="J9" s="7">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="30">
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" ht="30">
       <c r="A10" s="4">
         <v>1009</v>
       </c>
@@ -2222,8 +9962,11 @@
       <c r="J10" s="7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="30">
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" ht="30">
       <c r="A11" s="4">
         <v>1010</v>
       </c>
@@ -2249,176 +9992,516 @@
         <v>500</v>
       </c>
       <c r="I11" s="4">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="J11" s="7">
         <v>0.18</v>
       </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="I12" s="34">
+        <v>78000</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="M13" s="26"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="13:15">
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="13:15">
+      <c r="M18" s="26"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="13:15">
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
+    </row>
+    <row r="20" spans="13:15">
+      <c r="M20" s="26"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="28"/>
+    </row>
+    <row r="21" spans="13:15">
+      <c r="M21" s="26"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
+    </row>
+    <row r="22" spans="13:15">
+      <c r="M22" s="26"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="28"/>
+    </row>
+    <row r="23" spans="13:15">
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" spans="13:15">
+      <c r="M24" s="26"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="28"/>
+    </row>
+    <row r="25" spans="13:15">
+      <c r="M25" s="29"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="16" width="6.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="12">
+        <v>56250</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="12">
+        <v>10800</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12">
+        <v>42500</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2950</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="12">
+        <v>56250</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="G6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="12">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.7109375" customWidth="1"/>
+    <col min="36" max="42" width="4" customWidth="1"/>
+    <col min="43" max="43" width="5" customWidth="1"/>
+    <col min="44" max="44" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="21" t="s">
+    <row r="1" spans="1:34">
+      <c r="A1" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12">
+        <v>23</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="22" t="s">
+      <c r="X2" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="22">
-        <v>5000</v>
-      </c>
-      <c r="C2" s="22">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="22">
+      <c r="Y2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="12">
+        <v>88</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="12">
+        <v>9750</v>
+      </c>
+      <c r="X3" s="33">
+        <v>45296</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="12">
+        <v>35</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="12">
+        <v>20400</v>
+      </c>
+      <c r="X4" s="33">
+        <v>45297</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="12">
+        <v>146</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="12">
+        <v>23900</v>
+      </c>
+      <c r="X5" s="33">
+        <v>45298</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="L6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="12">
+        <v>2200</v>
+      </c>
+      <c r="X6" s="33">
+        <v>45299</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="L7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="12">
+        <v>56250</v>
+      </c>
+      <c r="X7" s="33">
+        <v>45300</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="X8" s="33">
+        <v>45301</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="X9" s="33">
+        <v>45302</v>
+      </c>
+      <c r="Y9" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="22" t="s">
+    <row r="10" spans="1:34">
+      <c r="X10" s="33">
+        <v>45303</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="X11" s="33">
+        <v>45304</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>3600</v>
+      </c>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="12"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="X12" s="33">
+        <v>45305</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>9000</v>
+      </c>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="12"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="X13" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="22">
-        <v>6000</v>
-      </c>
-      <c r="C3" s="22">
-        <v>2500</v>
-      </c>
-      <c r="D3" s="22">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="22">
-        <v>5500</v>
-      </c>
-      <c r="C4" s="22">
-        <v>2200</v>
-      </c>
-      <c r="D4" s="22">
-        <v>1100</v>
+      <c r="Y13" s="12">
+        <v>56250</v>
+      </c>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="12"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="12"/>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="12"/>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="12"/>
+    </row>
+    <row r="17" spans="33:34">
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="12"/>
+    </row>
+    <row r="18" spans="33:34">
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="12"/>
+    </row>
+    <row r="19" spans="33:34">
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="12"/>
+    </row>
+    <row r="20" spans="33:34">
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="12"/>
+    </row>
+    <row r="21" spans="33:34">
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="12"/>
+    </row>
+    <row r="34" spans="13:14">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="13:14">
+      <c r="N35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="13:14">
+      <c r="N36">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14">
+      <c r="N37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="13:14">
+      <c r="N38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="13:14">
+      <c r="N39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="13:14">
+      <c r="N40">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="13:14">
+      <c r="N41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="13:14">
+      <c r="N42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="13:14">
+      <c r="N43">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="13:14">
+      <c r="N44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="13:14">
+      <c r="N45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="13:14">
+      <c r="N46">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="13:14">
+      <c r="N47">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="13:14">
+      <c r="N48">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>